--- a/HackSafe/Assets/StreamingAssets/LocalizationExcelSheet.xlsx
+++ b/HackSafe/Assets/StreamingAssets/LocalizationExcelSheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Inżynierka\HackSafe\Assets\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Inżynierka\HackSafe\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F188437-E8D5-4401-BB74-E48110BEB256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5064672B-B57E-4190-87FB-A5AC8F0F27B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C244F3DC-1BA1-4A4A-B6A1-7B35F6450258}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="435">
   <si>
     <t>Key</t>
   </si>
@@ -344,9 +344,6 @@
     <t>Nie</t>
   </si>
   <si>
-    <t>exitSystemMEssage_key</t>
-  </si>
-  <si>
     <t>Are you sure you want to exit HackSafe system?</t>
   </si>
   <si>
@@ -984,6 +981,366 @@
   </si>
   <si>
     <t>Po podpisaniu pliku możesz go wysłać do big P poprzez kanał otwarty za pomocą ataku typu man in the middle.</t>
+  </si>
+  <si>
+    <t>bruteForce_title</t>
+  </si>
+  <si>
+    <t>Brute Force</t>
+  </si>
+  <si>
+    <t>Atak Brutlanej Siły</t>
+  </si>
+  <si>
+    <t>bruteForce_content_1</t>
+  </si>
+  <si>
+    <t>bruteForce_content_2</t>
+  </si>
+  <si>
+    <t>W teorii nie istnieje hasło, którego nie można złamać tą metodą – sukces ataku zależy jedynie od odpowiednio długiego czasu jego prowadzenia.</t>
+  </si>
+  <si>
+    <t>Dictionary Attack</t>
+  </si>
+  <si>
+    <t>dictionaryAttack_title</t>
+  </si>
+  <si>
+    <t>Atak Słownikowi</t>
+  </si>
+  <si>
+    <t>dictionaryAttack_content_1</t>
+  </si>
+  <si>
+    <t>Atak słownikowy stanowi ewolucję ataku brute force. Polega na wysyłaniu zapytań do serwera oraz analizowaniu uzyskanych odpowiedzi. W ataku słownikowym zamiast wszystkich możliwych kombinacji wykorzystywane są gotowe zbiory popularnych fraz, które użytkownicy często stosują jako hasła.</t>
+  </si>
+  <si>
+    <t>dictionaryAttack_content_2</t>
+  </si>
+  <si>
+    <t>Rainbow Table Attack</t>
+  </si>
+  <si>
+    <t>rainbowTableAttack_title</t>
+  </si>
+  <si>
+    <t>Atak typu rainbow table</t>
+  </si>
+  <si>
+    <t>rainbowTableAttack_content_1</t>
+  </si>
+  <si>
+    <t>Atak typu rainbow table stanowi rozwinięcie ataku słownikowego, wykorzystując pre-wygenerowane tabele tęczowe (rainbow tables) do szybszego odzyskiwania haseł na podstawie ich wartości funkcji skrótu (hash).</t>
+  </si>
+  <si>
+    <t>W odróżnieniu od tradycyjnych ataków słownikowych, które polegają na iteracji przez listę haseł, rainbow tables przechowują łańcuchy wartości hash i odpowiadające im hasła. Dzięki temu proces wyszukiwania jest znacznie bardziej efektywny czasowo.</t>
+  </si>
+  <si>
+    <t>Przed wykonaniem ataku konieczne jest wygenerowanie tablic tęczowych dla wybranej funkcji skrótu. Tablice te składają się z punktów początkowych i końcowych łańcuchów, które reprezentują hasła oraz ich wartości hash.</t>
+  </si>
+  <si>
+    <t>Na początku, na podstawie danej wartości hash, przeszukuje się tablice w poszukiwaniu dopasowania do punktu końcowego jednego z łańcuchów. Następnie, jeśli znaleziono dopasowanie, odtwarza się łańcuch od jego punktu początkowego, aż do uzyskania oryginalnego hasła.</t>
+  </si>
+  <si>
+    <t>Ten typ ataku wymaga znajomości wartości hash łamanego hasła.</t>
+  </si>
+  <si>
+    <t>rainbowTableAttack_content_2</t>
+  </si>
+  <si>
+    <t>rainbowTableAttack_content_3</t>
+  </si>
+  <si>
+    <t>rainbowTableAttack_content_4</t>
+  </si>
+  <si>
+    <t>rainbowTableAttack_content_5</t>
+  </si>
+  <si>
+    <t>sqlInjection_title</t>
+  </si>
+  <si>
+    <t>SQL Injection</t>
+  </si>
+  <si>
+    <t>Atak SQL injection</t>
+  </si>
+  <si>
+    <t>Atak typu SQL Injection (wstrzykiwanie kodu SQL) to luka w zabezpieczeniach systemów informatycznych, która pojawia się, gdy atakujący ma możliwość manipulowania zapytaniami SQL wysyłanymi przez aplikację do bazy danych. Luka ta powstaje, gdy dane wejściowe użytkownika nie są odpowiednio filtrowane ani oczyszczane przed przekazaniem ich do zapytania SQL.</t>
+  </si>
+  <si>
+    <t>Typowe scenariusze ataku obejmują: wstrzyknięcie złośliwego zapytania w pole tekstowe udostępnione użytkownikowi lub modyfikację zapytania SQL w przypadku, gdy jest ono generowane na podstawie danych w kodzie HTML lub aplikacji klienckiej.</t>
+  </si>
+  <si>
+    <t>sqlInjection_content_1</t>
+  </si>
+  <si>
+    <t>sqlInjection_content_2</t>
+  </si>
+  <si>
+    <t>Birthday Paradox</t>
+  </si>
+  <si>
+    <t>birthdayParadox_title</t>
+  </si>
+  <si>
+    <t>Paradoks Urodzinowy</t>
+  </si>
+  <si>
+    <t>Paradoks urodzinowy dotyczy pytania: ile osób musi znaleźć się w grupie, aby prawdopodobieństwo, że co najmniej dwie osoby mają urodziny tego samego dnia, było większe niż 50%? Intuicyjnie można sądzić, że potrzebna jest bardzo duża grupa osób, jednak matematyczna analiza pokazuje, że wystarczy już 24 osoby, aby prawdopodobieństwo to wynosiło około 50%. W przypadku 50 osób prawdopodobieństwo osiąga niemal 100%.</t>
+  </si>
+  <si>
+    <t>W kontekście ochrony danych zamiast urodzin można rozważyć problem posiadania przez dwie osoby tego samego hasła. Analiza takiego przypadku prowadzi do analogicznych wniosków – prawdopodobieństwo, że dwie osoby w dużej grupie mają identyczne hasło, jest znaczące.</t>
+  </si>
+  <si>
+    <t>birthdayParadox_content_1</t>
+  </si>
+  <si>
+    <t>birthdayParadox_content_2</t>
+  </si>
+  <si>
+    <t>manInTheMiddle_title</t>
+  </si>
+  <si>
+    <t>Man in the Middle Attack</t>
+  </si>
+  <si>
+    <t>Atak Man-in-the-Middle</t>
+  </si>
+  <si>
+    <t>Takie ataki umożliwiają kradzież danych osobowych, takich jak dane logowania, informacje konta czy numery kart kredytowych, a także przechwytywanie wiadomości przesyłanych pomiędzy stronami. Istnieje wiele technik przeprowadzania ataków MITM, jednak tu zostanie omówiony ataku typu SSL hijacking.</t>
+  </si>
+  <si>
+    <t>Polega on na tym, że atakujący w trakcie uzgadniania połączenia TCP wprowadza własne klucze uwierzytelniające, przesyłając je zarówno do nadawcy, jak i odbiorcy. W ten sposób tworzy pozornie bezpieczne połączenie, które jednak pozostaje całkowicie kontrolowane przez atakującego.</t>
+  </si>
+  <si>
+    <t>manInTheMiddle_content_1</t>
+  </si>
+  <si>
+    <t>manInTheMiddle_content_2</t>
+  </si>
+  <si>
+    <t>manInTheMiddle_content_3</t>
+  </si>
+  <si>
+    <t>fakeSignature_title</t>
+  </si>
+  <si>
+    <t>Ślepy podpis</t>
+  </si>
+  <si>
+    <t>Ślepy podpis oparty na schemacie RSA to modyfikacja standardowego algorytmu podpisu RSA, która umożliwia użytkownikowi uzyskanie podpisu na wiadomości od sygnatariusza bez ujawniania sygnatariuszowi treści wiadomości ani uzyskanego podpisu. Mechanizm ten znajduje zastosowanie w rozwiązaniach wymagających zachowania anonimowości, takich jak anonimowe poświadczenia i niewykrywalna gotówka elektroniczna. W takich przypadkach priorytetem jest ochrona prywatności użytkownika.</t>
+  </si>
+  <si>
+    <t>Działanie ślepego podpisu opiera się na następujących krokach:</t>
+  </si>
+  <si>
+    <t>2. Podpisywanie wiadomości przez sygnatariusza – zaślepiona wiadomość zostaje podpisana przez sygnatariusza przy użyciu jego klucza prywatnego RSA.</t>
+  </si>
+  <si>
+    <t>3. Usunięcie czynnika oślepiającego – użytkownik usuwa czynnik oślepiający z podpisanej wiadomości, uzyskując prawidłowy podpis RSA na oryginalnej wiadomości.</t>
+  </si>
+  <si>
+    <t>Oślepienie wykorzystuje właściwości matematyczne algorytmu RSA, zapewniając anonimowość użytkownika. Dodanie publicznych metadanych do podpisu umożliwia każdemu ich weryfikację, co czyni ślepe podpisy szczególnie przydatnymi w zastosowaniach takich jak budowanie zaufania w prywatnych sieciach czy systemach z ograniczonym dostępem.</t>
+  </si>
+  <si>
+    <t>fakeSignature_content_1</t>
+  </si>
+  <si>
+    <t>fakeSignature_content_2</t>
+  </si>
+  <si>
+    <t>fakeSignature_content_3</t>
+  </si>
+  <si>
+    <t>fakeSignature_content_4</t>
+  </si>
+  <si>
+    <t>fakeSignature_content_5</t>
+  </si>
+  <si>
+    <t>fakeSignature_content_6</t>
+  </si>
+  <si>
+    <t>Block Encryption</t>
+  </si>
+  <si>
+    <t>blockEncryption_title</t>
+  </si>
+  <si>
+    <t>A block cipher is a method of encrypting data in blocks to produce ciphertext using a cryptographic key and algorithm. The block cipher processes fixed-size blocks simultaneously, as opposed to a stream cipher, which encrypts data one bit at a time. Most modern block ciphers are designed to encrypt data in fixed-size blocks of either 64 or 128 bits.</t>
+  </si>
+  <si>
+    <t>Szyfr blokowy to metoda szyfrowania danych w blokach w celu wytworzenia tekstu zaszyfrowanego przy użyciu klucza kryptograficznego i algorytmu. Szyfr blokowy przetwarza bloki o stałym rozmiarze jednocześnie, w przeciwieństwie do szyfru strumieniowego, który szyfruje dane jeden bit na raz. Większość nowoczesnych szyfrów blokowych jest zaprojektowana do szyfrowania danych w blokach o stałym rozmiarze 64 lub 128 bitów.</t>
+  </si>
+  <si>
+    <t>blockEncryption_content_1</t>
+  </si>
+  <si>
+    <t>Klucz RSA</t>
+  </si>
+  <si>
+    <t>RSA Key</t>
+  </si>
+  <si>
+    <t>rsaKey_title</t>
+  </si>
+  <si>
+    <t>RSA(Rivest-Shamir-Adleman) Algorithm is an asymmetric or public-key cryptography algorithm which means it works on two different keys: Public Key and Private Key. The Public Key is used for encryption and is known to everyone, while the Private Key is used for decryption and must be kept secret by the receiver.</t>
+  </si>
+  <si>
+    <t>If Person A wants to send a message securely to Person B:</t>
+  </si>
+  <si>
+    <t>1. Person A encrypts the message using Person B’s Public Key.</t>
+  </si>
+  <si>
+    <t>2. Person B decrypts the message using their Private Key.</t>
+  </si>
+  <si>
+    <t>Algorytm RSA (Rivest-Shamir-Adleman) jest algorytmem kryptograficznym asymetrycznym lub z kluczem publicznym, co oznacza, że ​​działa na dwóch różnych kluczach: kluczu publicznym i kluczu prywatnym. Klucz publiczny jest używany do szyfrowania i jest znany każdemu, podczas gdy klucz prywatny jest używany do deszyfrowania i musi być utrzymywany w tajemnicy przez odbiorcę.</t>
+  </si>
+  <si>
+    <t>Jeśli Osoba A chce bezpiecznie wysłać wiadomość do Osoby B:</t>
+  </si>
+  <si>
+    <t>1. Osoba A szyfruje wiadomość za pomocą Klucza publicznego Osoby B.</t>
+  </si>
+  <si>
+    <t>2. Osoba B odszyfrowuje wiadomość za pomocą swojego Klucza prywatnego.</t>
+  </si>
+  <si>
+    <t>rsaKey_content_1</t>
+  </si>
+  <si>
+    <t>rsaKey_content_2</t>
+  </si>
+  <si>
+    <t>rsaKey_content_3</t>
+  </si>
+  <si>
+    <t>rsaKey_content_4</t>
+  </si>
+  <si>
+    <t>Padding Oracle to atak pozwalający na wyłuskanie tekstu jawnego z zaszyfrowanych danych bez znajomości klucza szyfrującego, a także – bez konieczności wyszukiwania błędów w samym algorytmie szyfrującym.</t>
+  </si>
+  <si>
+    <t>Padding Oracle Attack</t>
+  </si>
+  <si>
+    <t>Atak Padding Oracle</t>
+  </si>
+  <si>
+    <t>Padding Oracle is an attack that allows extracting plaintext from encrypted data without knowing the encryption key, and without the need to find errors in the encryption algorithm itself.</t>
+  </si>
+  <si>
+    <t>Atak typu brute force to jedno z najprostszych, ale jednocześnie skutecznych narzędzi. Polega na systematycznym sprawdzaniu wszystkich możliwych kombinacji znaków w celu odnalezienia właściwego hasła.</t>
+  </si>
+  <si>
+    <t>Brute force attack is one of the simplest, yet effective tools. It involves systematically checking all possible combinations of characters in order to find the correct password.</t>
+  </si>
+  <si>
+    <t>In theory, there is no password that cannot be cracked using this method – the success of the attack depends only on the appropriate length of time it is conducted.</t>
+  </si>
+  <si>
+    <t>Dictionary attack is an evolution of brute force attack. It consists of sending queries to the server and analyzing the obtained answers. In dictionary attack, instead of all possible combinations, ready sets of popular phrases are used, which users often use as passwords.</t>
+  </si>
+  <si>
+    <t>A rainbow table attack is an extension of the dictionary attack, using pre-generated rainbow tables to more quickly recover passwords based on their hash values.</t>
+  </si>
+  <si>
+    <t>Unlike traditional dictionary attacks that iterate through a list of passwords, rainbow tables store hash strings and their corresponding passwords. This makes the search process much more time-efficient.</t>
+  </si>
+  <si>
+    <t>Before performing an attack, it is necessary to generate rainbow tables for the selected hash function. These tables consist of the starting and ending points of the chains that represent the passwords and their hash values.</t>
+  </si>
+  <si>
+    <t>First, given a hash value, the tables are searched for a match to the endpoint of one of the chains. Then, if a match is found, the chain is recreated from its starting point until the original password is obtained.</t>
+  </si>
+  <si>
+    <t>This type of attack requires knowledge of the hash value of the password being cracked.</t>
+  </si>
+  <si>
+    <t>SQL Injection is a security vulnerability in information systems that occurs when an attacker has the ability to manipulate SQL queries sent by an application to the database. The vulnerability is created when user input is not properly filtered or sanitized before being passed to the SQL query.</t>
+  </si>
+  <si>
+    <t>Typical attack scenarios include: injecting a malicious query into a text field exposed to the user or modifying an SQL query in case it is generated based on data in HTML or a client application.</t>
+  </si>
+  <si>
+    <t>The birthday paradox asks: How many people must be in a group so that the probability that at least two people have the same birthday is greater than 50%? Intuitively, one might think that a very large group of people is needed, but mathematical analysis shows that just 24 people are enough for this probability to be about 50%. In the case of 50 people, the probability is almost 100%.</t>
+  </si>
+  <si>
+    <t>In the context of data protection, instead of birthdays, we can consider the problem of two people having the same password. Analysis of such a case leads to analogous conclusions - the probability that two people in a large group have the same password is significant.</t>
+  </si>
+  <si>
+    <t>Such attacks allow for the theft of personal data such as login details, account information, and credit card numbers, as well as intercepting messages sent between sites. There are many techniques for carrying out MITM attacks, but here we will discuss the SSL hijacking attack.</t>
+  </si>
+  <si>
+    <t>A Man-in-the-Middle (MITM) attack, is a type of cryptographic attack in which an attacker secretly intercepts and potentially modifies communications between two parties. The communicating parties are unaware that the connection between them is insecure.</t>
+  </si>
+  <si>
+    <t>It involves the attacker inserting their own authentication keys during the TCP handshake, sending them to both the sender and the recipient. In this way, they create a seemingly secure connection that is, however, completely controlled by the attacker.</t>
+  </si>
+  <si>
+    <t>The RSA-based blind signature is a modification of the standard RSA signature algorithm that allows a user to obtain a signature on a message from a signer without revealing the message content or the obtained signature to the signer. This mechanism is used in solutions that require anonymity, such as anonymous credentials and untraceable electronic cash. In such cases, the priority is to protect the user's privacy.</t>
+  </si>
+  <si>
+    <t>Blind Signature</t>
+  </si>
+  <si>
+    <t>The operation of a blind signature is based on the following steps:</t>
+  </si>
+  <si>
+    <t>2. Signing the message by the signer – the blinded message is signed by the signer using their RSA private key.</t>
+  </si>
+  <si>
+    <t>3. Removing the blinding factor – the user removes the blinding factor from the signed message, obtaining a valid RSA signature on the original message.</t>
+  </si>
+  <si>
+    <t>Blinding uses the mathematical properties of the RSA algorithm to provide anonymity to the user. Adding public metadata to the signature allows anyone to verify it, making blind signatures particularly useful for applications such as building trust in private networks or restricted systems.</t>
+  </si>
+  <si>
+    <t>paddingOracle_title</t>
+  </si>
+  <si>
+    <t>paddingOracle_content_1</t>
+  </si>
+  <si>
+    <t>Cybersecurity concepts</t>
+  </si>
+  <si>
+    <t>Koncepcje cyberbezpieczeństwa</t>
+  </si>
+  <si>
+    <t>cybersecurity_section_title</t>
+  </si>
+  <si>
+    <t>Linux terminal commands</t>
+  </si>
+  <si>
+    <t>Polecenia terminala Linux</t>
+  </si>
+  <si>
+    <t>command_section_title</t>
+  </si>
+  <si>
+    <t>1. Oślepianie wiadomości – użytkownik oślepia wiadomość, używając losowego czynnika oślepiającego (np. liczby losowej).</t>
+  </si>
+  <si>
+    <t>1. Blinding the message – the user blinds the message using a random blinding factor (e.g. a random number).</t>
+  </si>
+  <si>
+    <t>Atak Man-in-the-Middle (MITM), znany również jako człowiek pośrodku, to rodzaj ataku kryptograficznego, w którym atakujący potajemnie przechwytuje i potencjalnie modyfikuje komunikację między dwiema stronami. Strony komunikujące się ze sobą nie mają świadomości, że połączenie między nimi nie jest bezpieczne.</t>
+  </si>
+  <si>
+    <t>Atak ten, jak sugeruje jego nazwa, opiera się na słownikach zawierających takie frazy i buduje zapytania na ich podstawie. Pozwala to znacząco skrócić czas działania w porównaniu do metody brute force. Głównym ograniczeniem tej techniki jest jednak fakt, że jeśli hasło użytkownika nie znajduje się w słowniku, atak kończy się niepowodzeniem.</t>
+  </si>
+  <si>
+    <t>This attack, as its name suggests, is based on dictionaries containing such phrases and builds queries based on them. This allows to significantly reduce the time of operation compared to the brute force method. The main limitation of this technique, however, is the fact that if the user's password is not in the dictionary, the attack ends in failure.</t>
+  </si>
+  <si>
+    <t>exitSystemMessage_key</t>
   </si>
 </sst>
 </file>
@@ -1390,11 +1747,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD3952D7-A9B1-4A2B-A865-60B8FC46C43B}">
-  <dimension ref="A1:E108"/>
+  <dimension ref="A1:E148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A102" sqref="A102"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1610,7 +1967,7 @@
         <v>92</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1791,837 +2148,1275 @@
     </row>
     <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>434</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>191</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" ht="210" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D48" s="2"/>
     </row>
     <row r="49" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D49" s="2"/>
     </row>
     <row r="50" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>428</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>127</v>
-      </c>
-      <c r="B52" s="1" t="s">
+    </row>
+    <row r="53" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>126</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>132</v>
-      </c>
       <c r="B53" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D53" s="2"/>
     </row>
     <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D54" s="2"/>
     </row>
     <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-    </row>
-    <row r="56" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>176</v>
+        <v>121</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D61" s="3"/>
-      <c r="E61" s="1"/>
-    </row>
-    <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="D65" s="3"/>
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>174</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>119</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>154</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>120</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="C68" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>155</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="70" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>156</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B70" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>157</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C71" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>158</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>157</v>
-      </c>
-      <c r="B69" s="1" t="s">
+    <row r="73" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>159</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>122</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>170</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>158</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>159</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>160</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>123</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="C75" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>171</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>172</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>173</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>222</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="C77" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>223</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>425</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>230</v>
+        <v>423</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>224</v>
+        <v>315</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>225</v>
+        <v>318</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>234</v>
+        <v>400</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>226</v>
+        <v>319</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>237</v>
+        <v>401</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>227</v>
+        <v>322</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>238</v>
+        <v>321</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>240</v>
+        <v>324</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>246</v>
+        <v>402</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>241</v>
+        <v>326</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>249</v>
+        <v>433</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>248</v>
+        <v>432</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>242</v>
+        <v>328</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>251</v>
+        <v>327</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>243</v>
+        <v>330</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>252</v>
+        <v>403</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>244</v>
+        <v>336</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>254</v>
+        <v>404</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>245</v>
+        <v>337</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>256</v>
+        <v>405</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>258</v>
+        <v>338</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>263</v>
+        <v>406</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>259</v>
+        <v>339</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>265</v>
+        <v>407</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>264</v>
+        <v>335</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>267</v>
+        <v>341</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>261</v>
+        <v>345</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>269</v>
+        <v>408</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>271</v>
+        <v>346</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>274</v>
+        <v>409</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>270</v>
+        <v>348</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>276</v>
+        <v>347</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="195" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>272</v>
+        <v>352</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>275</v>
+        <v>410</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>273</v>
+        <v>353</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>278</v>
+        <v>411</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>279</v>
+        <v>351</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>280</v>
+        <v>354</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>285</v>
+        <v>355</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>281</v>
+        <v>359</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>287</v>
+        <v>413</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>282</v>
+        <v>360</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>288</v>
+        <v>412</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>283</v>
+        <v>361</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>291</v>
+        <v>414</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>290</v>
+        <v>358</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>362</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="225" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>369</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>370</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>371</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>372</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>373</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>374</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>376</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>379</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>382</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>391</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>392</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>393</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>394</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>421</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>422</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>221</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>222</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>223</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>224</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>225</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>226</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>239</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>240</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>241</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>242</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>243</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>244</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>257</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>258</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>259</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>260</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>270</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>269</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>271</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>272</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>279</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>280</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>281</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>282</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>291</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>298</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>293</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>292</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>299</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="B144" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>295</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>294</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>293</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="B146" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>297</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>296</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>295</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>298</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C107" s="1" t="s">
+      <c r="B148" s="1" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>297</v>
-      </c>
-      <c r="B108" s="1" t="s">
+      <c r="C148" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>315</v>
       </c>
     </row>
   </sheetData>

--- a/HackSafe/Assets/StreamingAssets/LocalizationExcelSheet.xlsx
+++ b/HackSafe/Assets/StreamingAssets/LocalizationExcelSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Inżynierka\HackSafe\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5064672B-B57E-4190-87FB-A5AC8F0F27B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C66F14-407F-4052-AF17-C2699B51246A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C244F3DC-1BA1-4A4A-B6A1-7B35F6450258}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C244F3DC-1BA1-4A4A-B6A1-7B35F6450258}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -140,9 +140,6 @@
     <t>continoue_key</t>
   </si>
   <si>
-    <t>Continoue game</t>
-  </si>
-  <si>
     <t>Start game</t>
   </si>
   <si>
@@ -200,15 +197,9 @@
     <t>Zapisz zmiany</t>
   </si>
   <si>
-    <t>Warning! After saving changes system will have to reload proceed with conscious!</t>
-  </si>
-  <si>
     <t>Ostrzeżenie! Po zapisaniu zmian system będzie musiał zostać ponownie załadowany, kontynuuj świadomie!</t>
   </si>
   <si>
-    <t>Wyjdź do meni</t>
-  </si>
-  <si>
     <t>tasks_key</t>
   </si>
   <si>
@@ -347,27 +338,15 @@
     <t>Are you sure you want to exit HackSafe system?</t>
   </si>
   <si>
-    <t>Czy na pewno chcesz opuścić HackSafe system?</t>
-  </si>
-  <si>
-    <t>cd comment</t>
-  </si>
-  <si>
     <t>cdCommand_title</t>
   </si>
   <si>
     <t>Polecenie cd</t>
   </si>
   <si>
-    <t>ls commend</t>
-  </si>
-  <si>
     <t>Polecenie ls</t>
   </si>
   <si>
-    <t>The ls command writes to standard output the contents of each specified Directory parameter or the name of each specified File parameter. If you do not specify a File or Directory parameter, the ls command displays the contents of the current directory.</t>
-  </si>
-  <si>
     <t>Polecenie ls wyświetla na standardowym wyjściu zawartość każdego określonego w parametrach katalogu lub nazwę każdego określonego parametrem pliku. Jeżeli nie określono w parametrach pliku lub katalogu, polecenie ls wyświetla zawartość bieżącego katalogu.</t>
   </si>
   <si>
@@ -377,15 +356,9 @@
     <t>lsCommand_content</t>
   </si>
   <si>
-    <t>cat commend</t>
-  </si>
-  <si>
     <t>Polecenie cat</t>
   </si>
   <si>
-    <t>ssh commend</t>
-  </si>
-  <si>
     <t>Polecenie ssh</t>
   </si>
   <si>
@@ -419,9 +392,6 @@
     <t>cdCommand_content_1</t>
   </si>
   <si>
-    <t xml:space="preserve">To navigate into the root directory, use $ cd / </t>
-  </si>
-  <si>
     <t xml:space="preserve">To navigate to your home directory, use $ cd </t>
   </si>
   <si>
@@ -482,9 +452,6 @@
     <t>ssh (SSH client) to program do logowania się do zdalnej maszyny i wykonywania poleceń na zdalnej maszynie. Jego celem jest zapewnienie bezpiecznej szyfrowanej komunikacji między dwoma niezaufanymi hostami przez niezabezpieczoną sieć. Połączenia X11, dowolne porty TCP i gniazda domeny UNIX mogą być również przekazywane przez bezpieczny kanał.</t>
   </si>
   <si>
-    <t>ssh łączy się i loguje do określonego miejsca docelowego, które jest określone jako user@host_ip. Użytkownik musi udowodnić swoją tożsamość zdalnej maszynie za pomocą hasła.</t>
-  </si>
-  <si>
     <t>scp copies files between hosts on a network. It uses ssh for data transfer, and uses the same authentication and provides the same security as ssh. scp will ask for passwords or passphrases if they are needed for authentication.</t>
   </si>
   <si>
@@ -494,9 +461,6 @@
     <t>$ scp your_username@remotehost.edu:foobar.txt /some/local/directory</t>
   </si>
   <si>
-    <t>Copy the file \"foobar.txt\" from the local host to a remote host:</t>
-  </si>
-  <si>
     <t>$ scp foobar.txt your_username@remotehost.edu:/some/remote/directory</t>
   </si>
   <si>
@@ -518,15 +482,9 @@
     <t>scpCommand_content_6</t>
   </si>
   <si>
-    <t>scp kopiuje pliki między hostami w sieci. Używa ssh do przesyłania danych i używa tego samego uwierzytelniania i zapewnia takie samo bezpieczeństwo jak ssh. scp poprosi o hasła lub frazy-hasła, jeśli są potrzebne do uwierzytelnienia.</t>
-  </si>
-  <si>
     <t>Przykłady:</t>
   </si>
   <si>
-    <t>Skopiuj plik foobar.txt z lokalnego hosta na zdalny host:</t>
-  </si>
-  <si>
     <t>Skopiuj plik foobar.txt ze zdalnego hosta na lokalny:</t>
   </si>
   <si>
@@ -542,9 +500,6 @@
     <t>$ mkdir Test</t>
   </si>
   <si>
-    <t>Polecenie mkdir tworzy jeden lub więcej nowych katalogów określonych przez parametr Directory.</t>
-  </si>
-  <si>
     <t>Aby utworzyć nowy katalog o nazwie Test w bieżącym katalogu roboczym, należy wywołać polecenie:</t>
   </si>
   <si>
@@ -620,45 +575,24 @@
     <t>Informacje o systemie</t>
   </si>
   <si>
-    <t>We are so happy that you choose our system for your hacking work. We assure you that our system will make your work more smooth and easy!</t>
-  </si>
-  <si>
     <t>Jesteśmy bardzo szczęśliwi, że wybrałeś nasz system do swojej pracy jako haker. Zapewniamy, że nasz system sprawi, że Twoja praca będzie bardziej płynna i łatwiejsza!</t>
   </si>
   <si>
     <t>Zacznijmy więc od podstaw i pokażmy, gdzie co się znajduje.</t>
   </si>
   <si>
-    <t>So let's start with basics and show you around where is what.</t>
-  </si>
-  <si>
-    <t>Let’s start form the top. The bar at contains home button (1) with which you can open this window if you want to refresh memory about the system, nest to it is settings button (2), save button (3) and mail button (4) that will open your mail box.</t>
-  </si>
-  <si>
     <t>Zacznijmy od góry. Pasek zawiera przycisk home (1), za pomocą którego możesz otworzyć to okno, jeśli chcesz odświeżyć pamięć o systemie, obok niego znajduje się przycisk ustawień (2), przycisk zapisz (3) i przycisk poczty (4), który otworzy Twoją skrzynkę pocztową.</t>
   </si>
   <si>
-    <t>While pressing the far right X button you will close system so be cautious around it.</t>
-  </si>
-  <si>
     <t>Naciśnięcie prawego skrajnego przycisku X spowoduje zamknięcie systemu, więc zachowaj ostrożność.</t>
   </si>
   <si>
-    <t>Let's now move a little bit lower on the left side there is a task panel where all your tasks that are important for current job will be shown. They are automatically generated by the system form the email from your employer.</t>
-  </si>
-  <si>
     <t>Przejdźmy teraz trochę niżej, po lewej stronie znajduje się panel zadań, w którym wyświetlane są wszystkie zadania ważne dla bieżącej pracy. Są one automatycznie generowane przez system z wiadomości e-mail od pracodawcy.</t>
   </si>
   <si>
-    <t>Now let’s move a little on the right. This is second most important element of the screen: network view. When your employ will granted you an access to network where you will do your tasks the system will visualize it. The white nodes are the nodes without passwords, all people taht have access to network have access to this nodes. The red nodes represent devices that you don't have access yet. And finally the green nodes represents the devices which you successfully hacked.</t>
-  </si>
-  <si>
     <t>Teraz przesuńmy się trochę w prawo. To jest drugi najważniejszy element ekranu: widok sieci. Kiedy Twój pracodawca przyzna Ci dostęp do sieci, w której będziesz wykonywać swoje zadania, system to zwizualizuje. Białe węzły to węzły bez haseł, wszystkie osoby, które mają dostęp do sieci, mają dostęp do tych węzłów. Czerwone węzły reprezentują urządzenia, do których jeszcze nie masz dostępu. I wreszcie zielone węzły reprezentują urządzenia, które udało Ci się zhakować.</t>
   </si>
   <si>
-    <t>If network view was second most important which view can be most important? Let's look a little more on the right and we will find out. The terminal panel! This is where you will do most of your work. Hack Safe system use its own version of Linux so terminal uses Linux commends. The most useful of them for you are listed in the notes and in glossary.</t>
-  </si>
-  <si>
     <t>Jeśli widok sieciowy jest drugi pod względem ważności, który widok może być najważniejszy? Przyjrzyjmy się trochę bardziej prawej stronie, a się dowiemy. Panel terminala! To tutaj wykonasz większość swojej pracy. System Hack Safe używa własnej wersji Linuksa, więc terminal używa poleceń Linuksa. Najbardziej przydatne z nich dla Ciebie są wymienione w notatkach i w glosariuszu.</t>
   </si>
   <si>
@@ -668,36 +602,15 @@
     <t xml:space="preserve">Welcome to HackSafe! </t>
   </si>
   <si>
-    <t>You may ask where are those notes, glossary? There are on the last panel we are going to elaborate on. The bottom panel.</t>
-  </si>
-  <si>
-    <t>The bottom panel contains 2 views that can be access by clicking the buttons 1 and 2. On the bottom bar there is also glossary button (3) that open glossary view.</t>
-  </si>
-  <si>
     <t>Możesz zapytać, gdzie są te notatki, glosariusz? Są na ostatnim panelu, który omówimy. Dolny panel.</t>
   </si>
   <si>
-    <t>Dolny panel zawiera 2 widoki, do których można uzyskać dostęp, klikając przyciski 1 i 2. Na dolnym pasku znajduje się również przycisk glosariusza (3), który otwiera widok glosariusza.</t>
-  </si>
-  <si>
     <t>Pierwszy widok to widok systemowy, w którym można monitorować wykorzystanie podzespołów urządzenia.</t>
   </si>
   <si>
-    <t>First view is the system view where you can monitor the usage of components of your device.</t>
-  </si>
-  <si>
     <t>Widok notatek umożliwia dodawanie własnych notatek, a także zawiera notatki systemowe (dotyczące zainstalowanych programów) i notatki dotyczące systemu Linux (dotyczące ważnych poleceń systemu Linux).</t>
   </si>
   <si>
-    <t>And the notes view where you can write your own notes and where system notes (notes about installed programs) and Linux notes (notes about important Linux command) are.</t>
-  </si>
-  <si>
-    <t>Thats all form us. We encourage you to explore the system by yourself. And wish the best while working with HackSafe system.</t>
-  </si>
-  <si>
-    <t>To wszystko od nas. Zachęcamy do samodzielnego eksplorowania systemu. I życzymy powodzenia w pracy z systemem HackSafe.</t>
-  </si>
-  <si>
     <t>Widok sieci firmy {0}</t>
   </si>
   <si>
@@ -989,9 +902,6 @@
     <t>Brute Force</t>
   </si>
   <si>
-    <t>Atak Brutlanej Siły</t>
-  </si>
-  <si>
     <t>bruteForce_content_1</t>
   </si>
   <si>
@@ -1007,9 +917,6 @@
     <t>dictionaryAttack_title</t>
   </si>
   <si>
-    <t>Atak Słownikowi</t>
-  </si>
-  <si>
     <t>dictionaryAttack_content_1</t>
   </si>
   <si>
@@ -1031,9 +938,6 @@
     <t>rainbowTableAttack_content_1</t>
   </si>
   <si>
-    <t>Atak typu rainbow table stanowi rozwinięcie ataku słownikowego, wykorzystując pre-wygenerowane tabele tęczowe (rainbow tables) do szybszego odzyskiwania haseł na podstawie ich wartości funkcji skrótu (hash).</t>
-  </si>
-  <si>
     <t>W odróżnieniu od tradycyjnych ataków słownikowych, które polegają na iteracji przez listę haseł, rainbow tables przechowują łańcuchy wartości hash i odpowiadające im hasła. Dzięki temu proces wyszukiwania jest znacznie bardziej efektywny czasowo.</t>
   </si>
   <si>
@@ -1235,18 +1139,9 @@
     <t>Padding Oracle is an attack that allows extracting plaintext from encrypted data without knowing the encryption key, and without the need to find errors in the encryption algorithm itself.</t>
   </si>
   <si>
-    <t>Atak typu brute force to jedno z najprostszych, ale jednocześnie skutecznych narzędzi. Polega na systematycznym sprawdzaniu wszystkich możliwych kombinacji znaków w celu odnalezienia właściwego hasła.</t>
-  </si>
-  <si>
     <t>Brute force attack is one of the simplest, yet effective tools. It involves systematically checking all possible combinations of characters in order to find the correct password.</t>
   </si>
   <si>
-    <t>In theory, there is no password that cannot be cracked using this method – the success of the attack depends only on the appropriate length of time it is conducted.</t>
-  </si>
-  <si>
-    <t>Dictionary attack is an evolution of brute force attack. It consists of sending queries to the server and analyzing the obtained answers. In dictionary attack, instead of all possible combinations, ready sets of popular phrases are used, which users often use as passwords.</t>
-  </si>
-  <si>
     <t>A rainbow table attack is an extension of the dictionary attack, using pre-generated rainbow tables to more quickly recover passwords based on their hash values.</t>
   </si>
   <si>
@@ -1310,9 +1205,6 @@
     <t>Cybersecurity concepts</t>
   </si>
   <si>
-    <t>Koncepcje cyberbezpieczeństwa</t>
-  </si>
-  <si>
     <t>cybersecurity_section_title</t>
   </si>
   <si>
@@ -1337,10 +1229,118 @@
     <t>Atak ten, jak sugeruje jego nazwa, opiera się na słownikach zawierających takie frazy i buduje zapytania na ich podstawie. Pozwala to znacząco skrócić czas działania w porównaniu do metody brute force. Głównym ograniczeniem tej techniki jest jednak fakt, że jeśli hasło użytkownika nie znajduje się w słowniku, atak kończy się niepowodzeniem.</t>
   </si>
   <si>
-    <t>This attack, as its name suggests, is based on dictionaries containing such phrases and builds queries based on them. This allows to significantly reduce the time of operation compared to the brute force method. The main limitation of this technique, however, is the fact that if the user's password is not in the dictionary, the attack ends in failure.</t>
-  </si>
-  <si>
     <t>exitSystemMessage_key</t>
+  </si>
+  <si>
+    <t>Continue game</t>
+  </si>
+  <si>
+    <t>Warning! After saving the changes the system reloads - proceed with caution!</t>
+  </si>
+  <si>
+    <t>Wyjdź do menu</t>
+  </si>
+  <si>
+    <t>Czy na pewno chcesz opuścić system HackSafe?</t>
+  </si>
+  <si>
+    <t>We are delighted you chose our system for your hacking work. We assure you that it shall make your work easier!</t>
+  </si>
+  <si>
+    <t>So let's start with basics and show you around.</t>
+  </si>
+  <si>
+    <t>Let’s start form the top. The bar there contains a home button (1) which opens this window and refreshes memory about the system. Next to it is a settings button (2), a save button (3) and a mail button (4) which opens your mailbox.</t>
+  </si>
+  <si>
+    <t>Pressing the X button in the top right corner shuts down the system.</t>
+  </si>
+  <si>
+    <t>Now, let's move a little lower. On the left side is a task panel. This is where you can find all tasks connected to your current assignment/job. They are generated automatically from the emails you receive from your employer(s?).</t>
+  </si>
+  <si>
+    <t>In the center of your screen is the second most important element: the network view. It visualises the network your employer grants you access to and the tasks you complete. There are three types of nodes in the networks: the white ones (open access nodes with no password protection), the red ones (nodes you don't have access to yet) and the green ones (successfully hacked nodes).</t>
+  </si>
+  <si>
+    <t>We mentioned that the network view is the second most important one, so you may be asking yourself - which one is the most important? It's the terminal panel on the right side of your screen! This is where you will do most of your work. HackSafe system uses its own version of Linux and so the terminal requires Linux commands. The ones most useful in your work are listed in the notes and the glossary.</t>
+  </si>
+  <si>
+    <t>You may wonder where to find these notes and the glossary? They are located on the panel at the bottom of the screen.</t>
+  </si>
+  <si>
+    <t>The bottom panel contains two views which can be accessed by clicking (1) and (2) buttons, as well as the glossary view (3).</t>
+  </si>
+  <si>
+    <t>Dolny panel zawiera dwa widoki, do których można uzyskać dostęp, klikając przyciski (1) i (2). Na dolnym pasku znajduje się również przycisk glosariusza (3), który otwiera widok glosariusza.</t>
+  </si>
+  <si>
+    <t>The first view is the system view, which allowes you to monitor the usage of components on your device.</t>
+  </si>
+  <si>
+    <t>The second view is the notes view, which allowes you to write down your notes. It's also where system and Linux notes (notes about installes programmes and Linux commands) are located.</t>
+  </si>
+  <si>
+    <t>Thats all form us. We encourage you to explore the system by yourself and wish you the best while you work with HackSafe system!</t>
+  </si>
+  <si>
+    <t>To już wszystko z naszej strony zachęcamy do samodzielnego eksplorowania systemu i życzymy powodzenia w pracy z systemem HackSafe.</t>
+  </si>
+  <si>
+    <t>cd command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To navigate to the root directory, use $ cd / </t>
+  </si>
+  <si>
+    <t>ls command</t>
+  </si>
+  <si>
+    <t>The ls command displays the contents of each specified directory parameter or the name of each specified file parameter on the standard output. If you do not specify a File or Directory parameter, the ls command displays the contents of the current directory.</t>
+  </si>
+  <si>
+    <t>cat command</t>
+  </si>
+  <si>
+    <t>ssh command</t>
+  </si>
+  <si>
+    <t>ssh łączy się i loguje do określonego miejsca docelowego, które jest określone jako user@host_ip. Użytkownik musi potwierdzić swoją tożsamość zdalnej maszynie za pomocą hasła.</t>
+  </si>
+  <si>
+    <t>scp kopiuje pliki między hostami w sieci.Używa ssh do przesyłania danych używając tego samego uwierzytelniania i zapewniając takie samo bezpieczeństwo co ssh. scp poprosi o hasła lub frazy-hasła, jeśli są potrzebne do uwierzytelnienia.</t>
+  </si>
+  <si>
+    <t>Copy the file foobar.txt from the local host to a remote host:</t>
+  </si>
+  <si>
+    <t>Skopiuj plik foobar.txt z lokalnego hosta na zdalny:</t>
+  </si>
+  <si>
+    <t>Polecenie mkdir tworzy nowe katalogi (jeden lub więcej) określone przez parametr Directory.</t>
+  </si>
+  <si>
+    <t>Pojęcia dot. Cyberbezpieczeństwa</t>
+  </si>
+  <si>
+    <t>Atak typu brute force</t>
+  </si>
+  <si>
+    <t>Atak typu brute force to jedno z najprostszych, ale jednocześnie skutecznych narzędzi. Polega na systematycznym sprawdzaniu wszystkich możliwych kombinacji znaków w celu znalezienia poprawnego hasła.</t>
+  </si>
+  <si>
+    <t>In theory, there is no password that cannot be cracked using this method – the success of the attack depends only on conducting it for long enough.</t>
+  </si>
+  <si>
+    <t>Atak Słownikowy</t>
+  </si>
+  <si>
+    <t>The dictionary attack is an evolution of the brute force atttack. It consists of sending queries to the server and analyzing the obtained answers. Instead of trying all possible combinations of characters, it uses available sets of popular phrases that are often used as passwords.</t>
+  </si>
+  <si>
+    <t>This attack, as its name suggests, is based on dictionaries containing such phrases and builds queries based on them. This reduces the time of the operation significantly, compared to the brute force method. However the main limitation of this method is the fact that is the fact that if the user's password is not in the dictionary, the attack ends in failure.</t>
+  </si>
+  <si>
+    <t>Atak typu tęczowe tabele stanowi rozwinięcie ataku słownikowego, wykorzystując pre-wygenerowane tabele tęczowe (rainbow tables) do szybszego odzyskiwania haseł na podstawie ich wartości funkcji skrótu (hash).</t>
   </si>
 </sst>
 </file>
@@ -1373,10 +1373,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1750,8 +1751,8 @@
   <dimension ref="A1:E148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1887,1536 +1888,1536 @@
         <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>398</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>54</v>
+        <v>399</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>56</v>
+        <v>400</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="C34" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>434</v>
+        <v>397</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>103</v>
+        <v>401</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>164</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>165</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>166</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>167</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>168</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" ht="210" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>169</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>170</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>210</v>
+        <v>409</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>211</v>
+        <v>410</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>213</v>
+        <v>411</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>215</v>
+        <v>412</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="D48" s="2"/>
     </row>
     <row r="49" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>217</v>
+        <v>413</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D49" s="2"/>
     </row>
-    <row r="50" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>218</v>
+        <v>414</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>219</v>
+        <v>415</v>
       </c>
       <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>428</v>
+        <v>392</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>427</v>
+        <v>391</v>
       </c>
       <c r="D51" s="2"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>104</v>
+        <v>416</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="D53" s="2"/>
     </row>
     <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>127</v>
+        <v>417</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D54" s="2"/>
     </row>
     <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D55" s="2"/>
     </row>
     <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
     </row>
     <row r="57" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>107</v>
+        <v>418</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
     </row>
     <row r="59" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>109</v>
+        <v>419</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>113</v>
+        <v>420</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
     </row>
     <row r="61" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="1"/>
     </row>
     <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>115</v>
+        <v>421</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>148</v>
+        <v>422</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>160</v>
+        <v>423</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>152</v>
+        <v>424</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>162</v>
+        <v>425</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>168</v>
+        <v>426</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>425</v>
+        <v>389</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>423</v>
+        <v>388</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>316</v>
+        <v>287</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>317</v>
+        <v>428</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>400</v>
+        <v>367</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>401</v>
+        <v>430</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>323</v>
+        <v>431</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>324</v>
+        <v>293</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>402</v>
+        <v>432</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>325</v>
+        <v>294</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>326</v>
+        <v>295</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>433</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>432</v>
+        <v>396</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>327</v>
+        <v>296</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>329</v>
+        <v>298</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>330</v>
+        <v>299</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>403</v>
+        <v>368</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>331</v>
+        <v>434</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>336</v>
+        <v>304</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>404</v>
+        <v>369</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>332</v>
+        <v>300</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>337</v>
+        <v>305</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>405</v>
+        <v>370</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>333</v>
+        <v>301</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>406</v>
+        <v>371</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>334</v>
+        <v>302</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>339</v>
+        <v>307</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>407</v>
+        <v>372</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>335</v>
+        <v>303</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>408</v>
+        <v>373</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>343</v>
+        <v>311</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>346</v>
+        <v>314</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>409</v>
+        <v>374</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>344</v>
+        <v>312</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="195" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>410</v>
+        <v>375</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>411</v>
+        <v>376</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>431</v>
+        <v>395</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>412</v>
+        <v>377</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>357</v>
+        <v>325</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>414</v>
+        <v>379</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>358</v>
+        <v>326</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>416</v>
+        <v>381</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="225" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>415</v>
+        <v>380</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>365</v>
+        <v>333</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>430</v>
+        <v>394</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>429</v>
+        <v>393</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>418</v>
+        <v>383</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>373</v>
+        <v>341</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>419</v>
+        <v>384</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>367</v>
+        <v>335</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>374</v>
+        <v>342</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>420</v>
+        <v>385</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>368</v>
+        <v>336</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="195" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>379</v>
+        <v>347</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>378</v>
+        <v>346</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>382</v>
+        <v>350</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>381</v>
+        <v>349</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>380</v>
+        <v>348</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>391</v>
+        <v>359</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>383</v>
+        <v>351</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>392</v>
+        <v>360</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>388</v>
+        <v>356</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>393</v>
+        <v>361</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>389</v>
+        <v>357</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>386</v>
+        <v>354</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>390</v>
+        <v>358</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>396</v>
+        <v>364</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>397</v>
+        <v>365</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>422</v>
+        <v>387</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>398</v>
+        <v>366</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>395</v>
+        <v>363</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>306</v>
+        <v>277</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>312</v>
+        <v>283</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
